--- a/server/export.xlsx
+++ b/server/export.xlsx
@@ -412,7 +412,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B7"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -420,6 +420,54 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
         <v>1</v>
       </c>
     </row>
@@ -431,7 +479,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F7"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -452,6 +500,90 @@
       </c>
       <c r="F1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -462,7 +594,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F7"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -483,6 +615,90 @@
       </c>
       <c r="F1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -493,7 +709,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F7"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -514,6 +730,90 @@
       </c>
       <c r="F1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -524,7 +824,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F7"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -545,6 +845,90 @@
       </c>
       <c r="F1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
